--- a/111-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW11/answer.xlsx
+++ b/111-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW11/answer.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,9 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
-  <si>
-    <t>x__</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="189" uniqueCount="95">
+  <si>
+    <t>順序</t>
   </si>
   <si>
     <t>1</t>
@@ -102,7 +102,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>x___1</t>
+    <t>學號</t>
   </si>
   <si>
     <t>M0919350</t>
@@ -189,688 +189,121 @@
     <t>P1068774</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>蔡樺</t>
+  </si>
+  <si>
+    <t>詹博</t>
+  </si>
+  <si>
+    <t>范齡</t>
+  </si>
+  <si>
+    <t>曾豪</t>
+  </si>
+  <si>
+    <t>柯偉</t>
+  </si>
+  <si>
+    <t>邱鴻</t>
+  </si>
+  <si>
+    <t>蔡韋</t>
+  </si>
+  <si>
+    <t>林成</t>
+  </si>
+  <si>
+    <t>汪右</t>
+  </si>
+  <si>
+    <t>黃冠</t>
+  </si>
+  <si>
+    <t>吳紫</t>
+  </si>
+  <si>
+    <t>王惟</t>
+  </si>
+  <si>
+    <t>徐帆</t>
+  </si>
+  <si>
+    <t>王均</t>
+  </si>
+  <si>
+    <t>林辰</t>
+  </si>
+  <si>
+    <t>蘇承</t>
+  </si>
+  <si>
+    <t>劉芫</t>
+  </si>
+  <si>
+    <t>曹峻</t>
+  </si>
+  <si>
+    <t>蔣仲</t>
+  </si>
+  <si>
+    <t>王貿</t>
+  </si>
+  <si>
+    <t>蔡勝</t>
+  </si>
+  <si>
+    <t>林勛</t>
+  </si>
+  <si>
+    <t>陳威</t>
+  </si>
+  <si>
+    <t>林帆</t>
+  </si>
+  <si>
+    <t>彭子</t>
+  </si>
+  <si>
+    <t>慶宇</t>
+  </si>
+  <si>
+    <t>蔡佳</t>
+  </si>
+  <si>
+    <t>謝叡</t>
+  </si>
+  <si>
     <t>Average score</t>
   </si>
   <si>
-    <t>x___2</t>
-  </si>
-  <si>
-    <t>蔡樺</t>
-  </si>
-  <si>
-    <t>詹博</t>
-  </si>
-  <si>
-    <t>范齡</t>
-  </si>
-  <si>
-    <t>曾豪</t>
-  </si>
-  <si>
-    <t>柯偉</t>
-  </si>
-  <si>
-    <t>邱鴻</t>
-  </si>
-  <si>
-    <t>蔡韋</t>
-  </si>
-  <si>
-    <t>林成</t>
-  </si>
-  <si>
-    <t>汪右</t>
-  </si>
-  <si>
-    <t>黃冠</t>
-  </si>
-  <si>
-    <t>吳紫</t>
-  </si>
-  <si>
-    <t>王惟</t>
-  </si>
-  <si>
-    <t>徐帆</t>
-  </si>
-  <si>
-    <t>王均</t>
-  </si>
-  <si>
-    <t>林辰</t>
-  </si>
-  <si>
-    <t>蘇承</t>
-  </si>
-  <si>
-    <t>劉芫</t>
-  </si>
-  <si>
-    <t>曹峻</t>
-  </si>
-  <si>
-    <t>蔣仲</t>
-  </si>
-  <si>
-    <t>王貿</t>
-  </si>
-  <si>
-    <t>蔡勝</t>
-  </si>
-  <si>
-    <t>林勛</t>
-  </si>
-  <si>
-    <t>陳威</t>
-  </si>
-  <si>
-    <t>林帆</t>
-  </si>
-  <si>
-    <t>彭子</t>
-  </si>
-  <si>
-    <t>慶宇</t>
-  </si>
-  <si>
-    <t>蔡佳</t>
-  </si>
-  <si>
-    <t>謝叡</t>
-  </si>
-  <si>
-    <t>x____</t>
-  </si>
-  <si>
-    <t>x_____1</t>
-  </si>
-  <si>
-    <t>x_____2</t>
-  </si>
-  <si>
-    <t>x_____3</t>
-  </si>
-  <si>
-    <t>x_____4</t>
-  </si>
-  <si>
-    <t>x_____5</t>
-  </si>
-  <si>
-    <t>x__</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>平時考核</t>
+  </si>
+  <si>
+    <t>期中考試</t>
+  </si>
+  <si>
+    <t>期末考試</t>
+  </si>
+  <si>
+    <t>平時等第</t>
+  </si>
+  <si>
+    <t>期中等第</t>
+  </si>
+  <si>
+    <t>期末等第</t>
   </si>
   <si>
     <t>29</t>
-  </si>
-  <si>
-    <t>x___1</t>
-  </si>
-  <si>
-    <t>M0919350</t>
-  </si>
-  <si>
-    <t>M0919750</t>
-  </si>
-  <si>
-    <t>M0930093</t>
-  </si>
-  <si>
-    <t>M1077660</t>
-  </si>
-  <si>
-    <t>M1086811</t>
-  </si>
-  <si>
-    <t>M1103180</t>
-  </si>
-  <si>
-    <t>M1105135</t>
-  </si>
-  <si>
-    <t>M1105415</t>
-  </si>
-  <si>
-    <t>M1107451</t>
-  </si>
-  <si>
-    <t>M1109717</t>
-  </si>
-  <si>
-    <t>M1110310</t>
-  </si>
-  <si>
-    <t>M1110337</t>
-  </si>
-  <si>
-    <t>M1116795</t>
-  </si>
-  <si>
-    <t>M1118026</t>
-  </si>
-  <si>
-    <t>M1118176</t>
-  </si>
-  <si>
-    <t>M1118306</t>
-  </si>
-  <si>
-    <t>M1118797</t>
-  </si>
-  <si>
-    <t>M1129494</t>
-  </si>
-  <si>
-    <t>M1129685</t>
-  </si>
-  <si>
-    <t>M1131250</t>
-  </si>
-  <si>
-    <t>M1131336</t>
-  </si>
-  <si>
-    <t>M1131663</t>
-  </si>
-  <si>
-    <t>M1131824</t>
-  </si>
-  <si>
-    <t>M1131930</t>
-  </si>
-  <si>
-    <t>M1173918</t>
-  </si>
-  <si>
-    <t>M1181483</t>
-  </si>
-  <si>
-    <t>M1189260</t>
-  </si>
-  <si>
-    <t>P1068774</t>
-  </si>
-  <si>
-    <t>Average score</t>
-  </si>
-  <si>
-    <t>x___2</t>
-  </si>
-  <si>
-    <t>蔡樺</t>
-  </si>
-  <si>
-    <t>詹博</t>
-  </si>
-  <si>
-    <t>范齡</t>
-  </si>
-  <si>
-    <t>曾豪</t>
-  </si>
-  <si>
-    <t>柯偉</t>
-  </si>
-  <si>
-    <t>邱鴻</t>
-  </si>
-  <si>
-    <t>蔡韋</t>
-  </si>
-  <si>
-    <t>林成</t>
-  </si>
-  <si>
-    <t>汪右</t>
-  </si>
-  <si>
-    <t>黃冠</t>
-  </si>
-  <si>
-    <t>吳紫</t>
-  </si>
-  <si>
-    <t>王惟</t>
-  </si>
-  <si>
-    <t>徐帆</t>
-  </si>
-  <si>
-    <t>王均</t>
-  </si>
-  <si>
-    <t>林辰</t>
-  </si>
-  <si>
-    <t>蘇承</t>
-  </si>
-  <si>
-    <t>劉芫</t>
-  </si>
-  <si>
-    <t>曹峻</t>
-  </si>
-  <si>
-    <t>蔣仲</t>
-  </si>
-  <si>
-    <t>王貿</t>
-  </si>
-  <si>
-    <t>蔡勝</t>
-  </si>
-  <si>
-    <t>林勛</t>
-  </si>
-  <si>
-    <t>陳威</t>
-  </si>
-  <si>
-    <t>林帆</t>
-  </si>
-  <si>
-    <t>彭子</t>
-  </si>
-  <si>
-    <t>慶宇</t>
-  </si>
-  <si>
-    <t>蔡佳</t>
-  </si>
-  <si>
-    <t>謝叡</t>
-  </si>
-  <si>
-    <t>x____</t>
-  </si>
-  <si>
-    <t>x_____1</t>
-  </si>
-  <si>
-    <t>x_____2</t>
-  </si>
-  <si>
-    <t>x_____3</t>
-  </si>
-  <si>
-    <t>x_____4</t>
-  </si>
-  <si>
-    <t>x_____5</t>
-  </si>
-  <si>
-    <t>x__</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>x___1</t>
-  </si>
-  <si>
-    <t>M0919350</t>
-  </si>
-  <si>
-    <t>M0919750</t>
-  </si>
-  <si>
-    <t>M0930093</t>
-  </si>
-  <si>
-    <t>M1077660</t>
-  </si>
-  <si>
-    <t>M1086811</t>
-  </si>
-  <si>
-    <t>M1103180</t>
-  </si>
-  <si>
-    <t>M1105135</t>
-  </si>
-  <si>
-    <t>M1105415</t>
-  </si>
-  <si>
-    <t>M1107451</t>
-  </si>
-  <si>
-    <t>M1109717</t>
-  </si>
-  <si>
-    <t>M1110310</t>
-  </si>
-  <si>
-    <t>M1110337</t>
-  </si>
-  <si>
-    <t>M1116795</t>
-  </si>
-  <si>
-    <t>M1118026</t>
-  </si>
-  <si>
-    <t>M1118176</t>
-  </si>
-  <si>
-    <t>M1118306</t>
-  </si>
-  <si>
-    <t>M1118797</t>
-  </si>
-  <si>
-    <t>M1129494</t>
-  </si>
-  <si>
-    <t>M1129685</t>
-  </si>
-  <si>
-    <t>M1131250</t>
-  </si>
-  <si>
-    <t>M1131336</t>
-  </si>
-  <si>
-    <t>M1131663</t>
-  </si>
-  <si>
-    <t>M1131824</t>
-  </si>
-  <si>
-    <t>M1131930</t>
-  </si>
-  <si>
-    <t>M1173918</t>
-  </si>
-  <si>
-    <t>M1181483</t>
-  </si>
-  <si>
-    <t>M1189260</t>
-  </si>
-  <si>
-    <t>P1068774</t>
-  </si>
-  <si>
-    <t>Average score</t>
-  </si>
-  <si>
-    <t>x___2</t>
-  </si>
-  <si>
-    <t>蔡樺</t>
-  </si>
-  <si>
-    <t>詹博</t>
-  </si>
-  <si>
-    <t>范齡</t>
-  </si>
-  <si>
-    <t>曾豪</t>
-  </si>
-  <si>
-    <t>柯偉</t>
-  </si>
-  <si>
-    <t>邱鴻</t>
-  </si>
-  <si>
-    <t>蔡韋</t>
-  </si>
-  <si>
-    <t>林成</t>
-  </si>
-  <si>
-    <t>汪右</t>
-  </si>
-  <si>
-    <t>黃冠</t>
-  </si>
-  <si>
-    <t>吳紫</t>
-  </si>
-  <si>
-    <t>王惟</t>
-  </si>
-  <si>
-    <t>徐帆</t>
-  </si>
-  <si>
-    <t>王均</t>
-  </si>
-  <si>
-    <t>林辰</t>
-  </si>
-  <si>
-    <t>蘇承</t>
-  </si>
-  <si>
-    <t>劉芫</t>
-  </si>
-  <si>
-    <t>曹峻</t>
-  </si>
-  <si>
-    <t>蔣仲</t>
-  </si>
-  <si>
-    <t>王貿</t>
-  </si>
-  <si>
-    <t>蔡勝</t>
-  </si>
-  <si>
-    <t>林勛</t>
-  </si>
-  <si>
-    <t>陳威</t>
-  </si>
-  <si>
-    <t>林帆</t>
-  </si>
-  <si>
-    <t>彭子</t>
-  </si>
-  <si>
-    <t>慶宇</t>
-  </si>
-  <si>
-    <t>蔡佳</t>
-  </si>
-  <si>
-    <t>謝叡</t>
-  </si>
-  <si>
-    <t>x____</t>
-  </si>
-  <si>
-    <t>x_____1</t>
-  </si>
-  <si>
-    <t>x_____2</t>
-  </si>
-  <si>
-    <t>x_____3</t>
-  </si>
-  <si>
-    <t>x_____4</t>
-  </si>
-  <si>
-    <t>x_____5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -909,59 +342,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.046875" customWidth="true"/>
-    <col min="2" max="2" width="9.82421875" customWidth="true"/>
-    <col min="3" max="3" width="6.046875" customWidth="true"/>
-    <col min="4" max="4" width="6.046875" customWidth="true"/>
-    <col min="5" max="5" width="8.046875" customWidth="true"/>
-    <col min="6" max="6" width="8.046875" customWidth="true"/>
-    <col min="7" max="7" width="8.046875" customWidth="true"/>
-    <col min="8" max="8" width="8.046875" customWidth="true"/>
-    <col min="9" max="9" width="8.046875" customWidth="true"/>
+    <col min="1" max="1" width="5.33203125" customWidth="true"/>
+    <col min="2" max="2" width="10" customWidth="true"/>
+    <col min="3" max="3" width="5.33203125" customWidth="true"/>
+    <col min="4" max="4" width="9.33203125" customWidth="true"/>
+    <col min="5" max="5" width="9.33203125" customWidth="true"/>
+    <col min="6" max="6" width="9.33203125" customWidth="true"/>
+    <col min="7" max="7" width="9.33203125" customWidth="true"/>
+    <col min="8" max="8" width="9.33203125" customWidth="true"/>
+    <col min="9" max="9" width="9.33203125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>278</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="D2" s="0">
         <v>90</v>
@@ -978,13 +414,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0">
         <v>90</v>
@@ -1001,13 +437,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="D4" s="0">
         <v>88</v>
@@ -1024,13 +460,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="D5" s="0">
         <v>90</v>
@@ -1047,13 +483,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="D6" s="0">
         <v>70</v>
@@ -1070,13 +506,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="D7" s="0">
         <v>80</v>
@@ -1093,13 +529,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="D8" s="0">
         <v>90</v>
@@ -1116,13 +552,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>257</v>
+        <v>66</v>
       </c>
       <c r="D9" s="0">
         <v>90</v>
@@ -1139,13 +575,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="D10" s="0">
         <v>90</v>
@@ -1162,13 +598,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>259</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0">
         <v>75</v>
@@ -1185,13 +621,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="D12" s="0">
         <v>70</v>
@@ -1208,13 +644,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="D13" s="0">
         <v>90</v>
@@ -1231,13 +667,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="D14" s="0">
         <v>95</v>
@@ -1254,13 +690,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="D15" s="0">
         <v>75</v>
@@ -1277,13 +713,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="D16" s="0">
         <v>82</v>
@@ -1300,13 +736,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="D17" s="0">
         <v>85</v>
@@ -1323,13 +759,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="D18" s="0">
         <v>75</v>
@@ -1346,13 +782,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0">
         <v>85</v>
@@ -1369,13 +805,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="D20" s="0">
         <v>75</v>
@@ -1392,13 +828,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0">
         <v>85</v>
@@ -1415,13 +851,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0">
         <v>82</v>
@@ -1438,13 +874,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="D23" s="0">
         <v>70</v>
@@ -1461,13 +897,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0">
         <v>70</v>
@@ -1484,13 +920,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="D25" s="0">
         <v>70</v>
@@ -1507,13 +943,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="D26" s="0">
         <v>80</v>
@@ -1530,13 +966,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0">
         <v>70</v>
@@ -1553,13 +989,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="D28" s="0">
         <v>70</v>
@@ -1576,13 +1012,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="D29" s="0">
         <v>80</v>
@@ -1599,10 +1035,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="C30" s="0"/>
       <c r="D30" s="0">

--- a/111-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW11/answer.xlsx
+++ b/111-2/INTRODUCTION TO MATLAB PROGRAMMING/Homework/HW11/answer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="287" uniqueCount="98">
   <si>
     <t>順序</t>
   </si>
@@ -298,6 +298,15 @@
   </si>
   <si>
     <t>29</t>
+  </si>
+  <si>
+    <t>平時GPA</t>
+  </si>
+  <si>
+    <t>期中GPA</t>
+  </si>
+  <si>
+    <t>期末GPA</t>
   </si>
 </sst>
 </file>
@@ -343,21 +352,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="true"/>
-    <col min="2" max="2" width="10" customWidth="true"/>
-    <col min="3" max="3" width="5.33203125" customWidth="true"/>
-    <col min="4" max="4" width="9.33203125" customWidth="true"/>
-    <col min="5" max="5" width="9.33203125" customWidth="true"/>
-    <col min="6" max="6" width="9.33203125" customWidth="true"/>
-    <col min="7" max="7" width="9.33203125" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" customWidth="true"/>
-    <col min="9" max="9" width="9.33203125" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="2" max="2" width="9.6640625" customWidth="true"/>
+    <col min="3" max="3" width="5" customWidth="true"/>
+    <col min="4" max="4" width="9" customWidth="true"/>
+    <col min="5" max="5" width="9" customWidth="true"/>
+    <col min="6" max="6" width="9" customWidth="true"/>
+    <col min="7" max="7" width="9" customWidth="true"/>
+    <col min="8" max="8" width="9" customWidth="true"/>
+    <col min="9" max="9" width="9" customWidth="true"/>
+    <col min="10" max="10" width="8.21875" customWidth="true"/>
+    <col min="11" max="11" width="8.21875" customWidth="true"/>
+    <col min="12" max="12" width="8.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -388,6 +400,15 @@
       <c r="I1" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -411,6 +432,9 @@
       <c r="G2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
@@ -434,6 +458,9 @@
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
@@ -457,6 +484,9 @@
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
@@ -480,6 +510,9 @@
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
@@ -503,6 +536,9 @@
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
@@ -526,6 +562,9 @@
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
@@ -549,6 +588,9 @@
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
@@ -572,6 +614,9 @@
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
@@ -595,6 +640,9 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
@@ -618,6 +666,9 @@
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
@@ -641,6 +692,9 @@
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
@@ -664,6 +718,9 @@
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
@@ -687,6 +744,9 @@
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
@@ -710,6 +770,9 @@
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
@@ -733,6 +796,9 @@
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
@@ -756,6 +822,9 @@
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
@@ -779,6 +848,9 @@
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
@@ -802,6 +874,9 @@
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
@@ -825,6 +900,9 @@
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
@@ -848,6 +926,9 @@
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
@@ -871,6 +952,9 @@
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
@@ -894,6 +978,9 @@
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
@@ -917,6 +1004,9 @@
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
@@ -940,6 +1030,9 @@
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
@@ -963,6 +1056,9 @@
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
@@ -986,6 +1082,9 @@
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
@@ -1009,6 +1108,9 @@
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
@@ -1032,6 +1134,9 @@
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
@@ -1053,6 +1158,9 @@
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
     </row>
   </sheetData>
 </worksheet>
